--- a/text/项目进度表.xlsx
+++ b/text/项目进度表.xlsx
@@ -16,14 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>任务</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>项目任务分配(总)</t>
   </si>
   <si>
     <t>截止到5.13进度</t>
   </si>
   <si>
+    <t>5.16进度</t>
+  </si>
+  <si>
     <t>张有亮</t>
   </si>
   <si>
@@ -33,49 +36,70 @@
     <t>静态完成</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>李永刚</t>
   </si>
   <si>
-    <t>实现登陆注册页面功能</t>
+    <t>实现登陆注册页面功能:静态,验证</t>
   </si>
   <si>
     <t>静态完成,动态在调试中</t>
   </si>
   <si>
+    <t>注册登陆验证的实现</t>
+  </si>
+  <si>
     <t>李涛</t>
   </si>
   <si>
-    <t>分类一块包含静态动态和页面渲染</t>
+    <t>分类一块包含静态动态和页面渲染,9.9包邮页面静态</t>
   </si>
   <si>
     <t>功能基本完成,做9.9包邮特价页面</t>
   </si>
   <si>
+    <t>实现9.9包邮基本页面的实现</t>
+  </si>
+  <si>
     <t>王浩</t>
   </si>
   <si>
-    <t>所有页面公共部分,留言板和客服机器人对话</t>
+    <t>所有页面公共部分,留言板和客服机器人对话,出版社板块</t>
   </si>
   <si>
     <t>公共部分和留言板完成</t>
   </si>
   <si>
+    <t>实现客服会话</t>
+  </si>
+  <si>
     <t>鲁纪元</t>
   </si>
   <si>
-    <t>首页包含的所有静态,动态和后台渲染</t>
+    <t>首页包含的所有静态,动态和后台渲染,加入购物车的实现</t>
   </si>
   <si>
     <t>首页完成,做详情页面和购物车</t>
   </si>
   <si>
+    <t>实现了购物车功能</t>
+  </si>
+  <si>
     <t>于红友</t>
   </si>
   <si>
-    <t>畅销榜包含的静态动态和页面渲染</t>
+    <t>畅销榜包含的静态动态和页面渲染以及其中小细节</t>
   </si>
   <si>
     <t>静态完成,做详情页面</t>
+  </si>
+  <si>
+    <t>详情页的数据渲染及部分js动态的添加</t>
+  </si>
+  <si>
+    <t>访问地址:http://152.136.88.50/</t>
   </si>
 </sst>
 </file>
@@ -111,6 +135,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -141,13 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -462,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -474,6 +498,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -588,28 +638,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,13 +668,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,7 +683,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,40 +692,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,22 +734,22 @@
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,16 +758,16 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,7 +776,7 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,13 +790,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,137 +1147,162 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:3">
+    <row r="1" customHeight="1" spans="2:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
